--- a/template.xlsx
+++ b/template.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn Woelm\Projects\stata-excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2525CD7-2AF0-422C-A901-BE61CE11CF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB5012C-F422-47FD-A1F2-115B5BC57D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="1560" windowWidth="25140" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overall Results" sheetId="8" r:id="rId1"/>
+    <sheet name="Values, Ratings, Trends" sheetId="2" r:id="rId2"/>
+    <sheet name="Values, Scores, Ratings, Trends" sheetId="9" r:id="rId3"/>
+    <sheet name="Codebook" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +28,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>title</t>
   </si>
   <si>
     <t>conditional formatting for the entire sheet (A:ZZ)</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>➚</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -80,19 +119,244 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{98D6A88B-4311-433F-94EE-C83666F9F6A6}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FFEA6B14"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -810,12 +1074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAFD747-961D-4958-B282-966AFB409A3E}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,16 +1097,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>27.6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:ZZ1048576">
+  <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="↓">
       <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
     </cfRule>
@@ -875,4 +1201,308 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF4C6E-3E65-4E26-AFB9-A800448A3220}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>27.6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="↓">
+      <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="→">
+      <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="➚">
+      <formula>NOT(ISERROR(SEARCH("➚",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="↑">
+      <formula>NOT(ISERROR(SEARCH("↑",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="gray">
+      <formula>NOT(ISERROR(SEARCH("gray",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="orange">
+      <formula>NOT(ISERROR(SEARCH("orange",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="yellow">
+      <formula>NOT(ISERROR(SEARCH("yellow",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="red">
+      <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="green">
+      <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D59EDA-29EF-4B54-BF6D-02E731E6D405}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>27.6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="↓">
+      <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="→">
+      <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="➚">
+      <formula>NOT(ISERROR(SEARCH("➚",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="↑">
+      <formula>NOT(ISERROR(SEARCH("↑",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="gray">
+      <formula>NOT(ISERROR(SEARCH("gray",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="orange">
+      <formula>NOT(ISERROR(SEARCH("orange",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="yellow">
+      <formula>NOT(ISERROR(SEARCH("yellow",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="red">
+      <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="green">
+      <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4629F5CE-B5DB-4909-BAA5-331D2B62803D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn Woelm\Projects\stata-excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB5012C-F422-47FD-A1F2-115B5BC57D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108A10F6-77F2-440D-A377-96D51BAE0FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1560" windowWidth="25140" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="1560" windowWidth="25140" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Results" sheetId="8" r:id="rId1"/>
@@ -1077,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAFD747-961D-4958-B282-966AFB409A3E}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1170,31 +1170,31 @@
     <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="↓">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="↓">
       <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="→">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="→">
       <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="➚">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="➚">
       <formula>NOT(ISERROR(SEARCH("➚",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="↑">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="↑">
       <formula>NOT(ISERROR(SEARCH("↑",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="gray">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="gray">
       <formula>NOT(ISERROR(SEARCH("gray",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="orange">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="orange">
       <formula>NOT(ISERROR(SEARCH("orange",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="yellow">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="yellow">
       <formula>NOT(ISERROR(SEARCH("yellow",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="red">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="red">
       <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="green">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="green">
       <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1300,31 +1300,31 @@
     <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="↓">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="↓">
       <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="→">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="→">
       <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="➚">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="➚">
       <formula>NOT(ISERROR(SEARCH("➚",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="↑">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="↑">
       <formula>NOT(ISERROR(SEARCH("↑",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="gray">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="gray">
       <formula>NOT(ISERROR(SEARCH("gray",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="orange">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="orange">
       <formula>NOT(ISERROR(SEARCH("orange",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="yellow">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="yellow">
       <formula>NOT(ISERROR(SEARCH("yellow",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="red">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="red">
       <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="green">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="green">
       <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1467,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4629F5CE-B5DB-4909-BAA5-331D2B62803D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn Woelm\Projects\stata-excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108A10F6-77F2-440D-A377-96D51BAE0FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C6B9D0-E910-491C-92AA-CC4ADA4050E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1560" windowWidth="25140" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="1410" windowWidth="23040" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Results" sheetId="8" r:id="rId1"/>
@@ -76,16 +76,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,17 +109,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
@@ -135,7 +127,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{98D6A88B-4311-433F-94EE-C83666F9F6A6}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -577,6 +576,462 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FFEA6B14"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FFEA6B14"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1077,125 +1532,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAFD747-961D-4958-B282-966AFB409A3E}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>15.5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>27.6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="↓">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="↓">
       <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="→">
+    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="→">
       <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="➚">
+    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="➚">
       <formula>NOT(ISERROR(SEARCH("➚",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="↑">
+    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="↑">
       <formula>NOT(ISERROR(SEARCH("↑",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="gray">
+    <cfRule type="containsText" dxfId="43" priority="6" operator="containsText" text="gray">
       <formula>NOT(ISERROR(SEARCH("gray",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="orange">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="orange">
       <formula>NOT(ISERROR(SEARCH("orange",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="yellow">
+    <cfRule type="containsText" dxfId="41" priority="8" operator="containsText" text="yellow">
       <formula>NOT(ISERROR(SEARCH("yellow",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="red">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="red">
       <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="green">
+    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="green">
       <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="38" priority="1">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1205,127 +1663,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF4C6E-3E65-4E26-AFB9-A800448A3220}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>15.5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>27.6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="↓">
+  <conditionalFormatting sqref="A2:XFD1048576">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="↓">
+      <formula>NOT(ISERROR(SEARCH("↓",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="→">
+      <formula>NOT(ISERROR(SEARCH("→",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="➚">
+      <formula>NOT(ISERROR(SEARCH("➚",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="↑">
+      <formula>NOT(ISERROR(SEARCH("↑",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="gray">
+      <formula>NOT(ISERROR(SEARCH("gray",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="orange">
+      <formula>NOT(ISERROR(SEARCH("orange",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="yellow">
+      <formula>NOT(ISERROR(SEARCH("yellow",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="red">
+      <formula>NOT(ISERROR(SEARCH("red",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="green">
+      <formula>NOT(ISERROR(SEARCH("green",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="↓">
       <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="→">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="→">
       <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="➚">
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="➚">
       <formula>NOT(ISERROR(SEARCH("➚",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="↑">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="↑">
       <formula>NOT(ISERROR(SEARCH("↑",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="gray">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="gray">
       <formula>NOT(ISERROR(SEARCH("gray",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="orange">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="orange">
       <formula>NOT(ISERROR(SEARCH("orange",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="yellow">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="yellow">
       <formula>NOT(ISERROR(SEARCH("yellow",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="red">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="red">
       <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="green">
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="green">
       <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1338,124 +1814,158 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>15.5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>27.6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="↓">
+  <conditionalFormatting sqref="A2:ZZ1048576">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="↓">
+      <formula>NOT(ISERROR(SEARCH("↓",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="→">
+      <formula>NOT(ISERROR(SEARCH("→",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="➚">
+      <formula>NOT(ISERROR(SEARCH("➚",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="↑">
+      <formula>NOT(ISERROR(SEARCH("↑",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="gray">
+      <formula>NOT(ISERROR(SEARCH("gray",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="orange">
+      <formula>NOT(ISERROR(SEARCH("orange",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="yellow">
+      <formula>NOT(ISERROR(SEARCH("yellow",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="red">
+      <formula>NOT(ISERROR(SEARCH("red",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="green">
+      <formula>NOT(ISERROR(SEARCH("green",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="↓">
       <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="→">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="→">
       <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="➚">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="➚">
       <formula>NOT(ISERROR(SEARCH("➚",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="↑">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="↑">
       <formula>NOT(ISERROR(SEARCH("↑",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="gray">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="gray">
       <formula>NOT(ISERROR(SEARCH("gray",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="orange">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="orange">
       <formula>NOT(ISERROR(SEARCH("orange",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="yellow">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="yellow">
       <formula>NOT(ISERROR(SEARCH("yellow",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="red">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="red">
       <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="green">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="green">
       <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1474,17 +1984,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn Woelm\Projects\stata-excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C6B9D0-E910-491C-92AA-CC4ADA4050E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB2072B-F8E2-409C-8D0F-A5FF66218538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="1410" windowWidth="23040" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="1410" windowWidth="23040" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Results" sheetId="8" r:id="rId1"/>
@@ -1532,7 +1532,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAFD747-961D-4958-B282-966AFB409A3E}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1665,7 +1670,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF4C6E-3E65-4E26-AFB9-A800448A3220}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1813,8 +1823,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D59EDA-29EF-4B54-BF6D-02E731E6D405}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn Woelm\Projects\stata-excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB2072B-F8E2-409C-8D0F-A5FF66218538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A406C-E18C-4D33-AF88-2DABD1417005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="1410" windowWidth="23040" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="1410" windowWidth="23040" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Results" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>title</t>
   </si>
@@ -71,6 +71,15 @@
   <si>
     <t>value</t>
   </si>
+  <si>
+    <t>big column</t>
+  </si>
+  <si>
+    <t>normal col</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -121,6 +130,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1532,27 +1544,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAFD747-961D-4958-B282-966AFB409A3E}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1823,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D59EDA-29EF-4B54-BF6D-02E731E6D405}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
